--- a/files/member_record/周星同.xlsx
+++ b/files/member_record/周星同.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,31 +424,31 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>contest_name</t>
+          <t>比赛名称</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>rank</t>
+          <t>排名</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>new_rating</t>
+          <t>新 rating</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024#90</t>
+          <t>2024#91</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>1447</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="3">
@@ -461,59 +461,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024#90</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024#90</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024#90</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024#90</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1448</v>
+        <v>1475</v>
       </c>
     </row>
   </sheetData>

--- a/files/member_record/周星同.xlsx
+++ b/files/member_record/周星同.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,26 +441,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024#91</t>
+          <t>2024#94</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>1463</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2024#92</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024#91</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024#90</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C5" t="n">
         <v>1475</v>
       </c>
     </row>

--- a/files/member_record/周星同.xlsx
+++ b/files/member_record/周星同.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,52 +441,130 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024#94</t>
+          <t>2024#102</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1475</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024#92</t>
+          <t>2024#101</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1475</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024#91</t>
+          <t>2024#99</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1475</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2024#98</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024#97</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024#96</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024#94</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024#92</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024#91</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>2024#90</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B11" t="n">
         <v>12</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
         <v>1475</v>
       </c>
     </row>
